--- a/biology/Origine et évolution du vivant/Malacostraca/Malacostraca.xlsx
+++ b/biology/Origine et évolution du vivant/Malacostraca/Malacostraca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Malacostracés (Malacostraca) sont une classe de crustacés dits « supérieurs ». On les opposait autrefois aux autres crustacés, dits « inférieurs » (ancienne classe des entomostraca).
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme Malacostracés vient du grec ancien : malakós (« mou ») et óstrakon (« coquille »).
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les malacostracés ont la tête soudée au thorax, formant ainsi le céphalothorax, qui est distinct de l’abdomen. Leurs principaux représentants sont les homards, les crabes, les squilles. Ils sont généralement de grande taille.
 Ils ont 21 segments (sauf les phyllocarides) et possèdent 19 paires d’appendices, ainsi que des yeux pédonculés. La forme nauplius (larve) évolue chez eux, avant le stade imaginal, en diverses formes qui sont appelées successivement : métanauplius, zoé, mégalope, mysis. Les larves des péracarides s'appellent « manca ».
@@ -574,7 +590,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les Malacostracés, comme chez les autres crustacés, le corps est subdivisé en trois tagmes successifs : le céphalon, le péréion et le pléon. Le corps est terminé par le telson.
 </t>
@@ -605,9 +623,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (15 mars 2014)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (15 mars 2014) :
 Sous-classe Eumalacostraca Grobben, 1892
 Super-ordre Eucarida Calman, 1904
 Ordre Amphionidacea Williamson, 1973 — Amphionidacés
@@ -636,7 +656,7 @@
 Ordre †Archaeostraca
 Ordre †Hoplostraca
 Ordre Leptostraca Claus, 1880
-Le cladogramme suivant est basé sur l'analyse phylogénétique de 2001 de Richter &amp; Scholtz[2].
+Le cladogramme suivant est basé sur l'analyse phylogénétique de 2001 de Richter &amp; Scholtz.
 			Un crabe Cancer bellianus (Eucarida)
 			Un amphipode Nototropis swammerdamei (Peracarida)
 			Koonunga cursor (Syncarida)
